--- a/outputs-GTDB-r202/c__Clostridia.xlsx
+++ b/outputs-GTDB-r202/c__Clostridia.xlsx
@@ -1337,7 +1337,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="AC139" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="AC140" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -14447,7 +14447,7 @@
       </c>
       <c r="AC147" t="inlineStr">
         <is>
-          <t>o__Saccharofermentanales</t>
+          <t>o__Saccharofermentanales(reject)</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       </c>
       <c r="AC160" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -16442,7 +16442,7 @@
       </c>
       <c r="AC168" t="inlineStr">
         <is>
-          <t>o__Peptostreptococcales</t>
+          <t>o__Peptostreptococcales(reject)</t>
         </is>
       </c>
     </row>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="AC171" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -18342,7 +18342,7 @@
       </c>
       <c r="AC188" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -21762,7 +21762,7 @@
       </c>
       <c r="AC224" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -22902,7 +22902,7 @@
       </c>
       <c r="AC236" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -23092,7 +23092,7 @@
       </c>
       <c r="AC238" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -23282,7 +23282,7 @@
       </c>
       <c r="AC240" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -23567,7 +23567,7 @@
       </c>
       <c r="AC243" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -24232,7 +24232,7 @@
       </c>
       <c r="AC250" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -24802,7 +24802,7 @@
       </c>
       <c r="AC256" t="inlineStr">
         <is>
-          <t>o__Peptostreptococcales</t>
+          <t>o__Peptostreptococcales(reject)</t>
         </is>
       </c>
     </row>
@@ -25562,7 +25562,7 @@
       </c>
       <c r="AC264" t="inlineStr">
         <is>
-          <t>o__Clostridiales</t>
+          <t>o__Clostridiales(reject)</t>
         </is>
       </c>
     </row>
@@ -28792,7 +28792,7 @@
       </c>
       <c r="AC298" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -29077,7 +29077,7 @@
       </c>
       <c r="AC301" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -30977,7 +30977,7 @@
       </c>
       <c r="AC321" t="inlineStr">
         <is>
-          <t>o__Peptostreptococcales</t>
+          <t>o__Peptostreptococcales(reject)</t>
         </is>
       </c>
     </row>
@@ -32307,7 +32307,7 @@
       </c>
       <c r="AC335" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -32402,7 +32402,7 @@
       </c>
       <c r="AC336" t="inlineStr">
         <is>
-          <t>o__Oscillospirales</t>
+          <t>o__Oscillospirales(reject)</t>
         </is>
       </c>
     </row>
@@ -33352,7 +33352,7 @@
       </c>
       <c r="AC346" t="inlineStr">
         <is>
-          <t>o__Lachnospirales</t>
+          <t>o__Lachnospirales(reject)</t>
         </is>
       </c>
     </row>
